--- a/Data base 2/Туры.xlsx
+++ b/Data base 2/Туры.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20378"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20379"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E7A2B7-3E03-4D86-9629-57C5CAF7E4DA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A76AA1-C53D-493B-97B3-227416739190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,8 +435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
